--- a/examples/ImpDoc_FAWS_QC_Test.xlsx
+++ b/examples/ImpDoc_FAWS_QC_Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://raxglobal-my.sharepoint.com/personal/carlo_taguinod_rackspace_com/Documents/0-Projects/SANDBOX/rax-apj-build-tool/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="166" documentId="8_{A4458CAD-FB69-4AF9-8865-44578724658F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{82E14C75-1184-EC4C-AB8C-3A275C0A3F34}"/>
+  <xr:revisionPtr revIDLastSave="208" documentId="8_{A4458CAD-FB69-4AF9-8865-44578724658F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{71D8B944-70A7-D44B-8A0A-B3D76A9B9358}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="20300" tabRatio="792" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41200" yWindow="2660" windowWidth="25220" windowHeight="17220" tabRatio="792" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <definedName name="PublicSubnets">Subnets[[#Headers],[public-az1]] &amp; CHAR(10) &amp; Subnets[[#Headers],[public-az2]]</definedName>
     <definedName name="Region">'Networking Services'!$C$8</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <customWorkbookViews>
     <customWorkbookView name="Present" guid="{33B30F8C-FD0D-554C-9CDD-938BCE2733BB}" includePrintSettings="0" includeHiddenRowCol="0" maximized="1" windowWidth="1440" windowHeight="634" tabRatio="500" activeSheetId="2"/>
   </customWorkbookViews>
@@ -177,7 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="438">
   <si>
     <t xml:space="preserve">Account </t>
   </si>
@@ -1220,9 +1220,6 @@
     <t>m5.large</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
     <t>Web-ALB</t>
   </si>
   <si>
@@ -1490,7 +1487,13 @@
     <t>10.1.2.0/24</t>
   </si>
   <si>
-    <t>VPC Subnets</t>
+    <t>Subnetworks</t>
+  </si>
+  <si>
+    <t>t2.micro</t>
+  </si>
+  <si>
+    <t>Development-instance02</t>
   </si>
 </sst>
 </file>
@@ -2382,7 +2385,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Instances" displayName="Instances" ref="B17:C30" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="EC2 Standalone Instances" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Admin" dataDxfId="42" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Development-instance02" dataDxfId="42" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="ResourceTables" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2818,7 +2821,7 @@
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Subnets" displayName="Subnets" ref="B15:F19" totalsRowShown="0" tableBorderDxfId="45" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="VPC Subnets" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Subnetworks" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="public-az1" dataCellStyle="Normal"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="public-az2" dataCellStyle="Normal"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="private-az1" dataCellStyle="Normal"/>
@@ -3276,7 +3279,7 @@
   <dimension ref="B2:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3302,7 +3305,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
@@ -3313,7 +3316,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D5" s="11"/>
     </row>
@@ -3332,7 +3335,7 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D7" s="11"/>
     </row>
@@ -3341,7 +3344,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="10"/>
@@ -3375,7 +3378,7 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
@@ -3393,19 +3396,19 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E15" t="s">
+        <v>426</v>
+      </c>
+      <c r="F15" t="s">
         <v>427</v>
-      </c>
-      <c r="F15" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
@@ -3445,16 +3448,16 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
+        <v>433</v>
+      </c>
+      <c r="D18" t="s">
         <v>434</v>
       </c>
-      <c r="D18" t="s">
-        <v>435</v>
-      </c>
       <c r="E18" t="s">
+        <v>431</v>
+      </c>
+      <c r="F18" t="s">
         <v>432</v>
-      </c>
-      <c r="F18" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
@@ -3762,7 +3765,7 @@
   <dimension ref="B2:D94"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3937,7 +3940,7 @@
         <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>346</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="17" x14ac:dyDescent="0.2">
@@ -3953,7 +3956,7 @@
         <v>195</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>345</v>
+        <v>436</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="17" x14ac:dyDescent="0.2">
@@ -3961,8 +3964,8 @@
         <v>64</v>
       </c>
       <c r="C20" s="3" t="str">
-        <f>Subnets[[#Headers],[private-az1]]</f>
-        <v>private-az1</v>
+        <f>Subnets[[#Headers],[public-az1]]</f>
+        <v>public-az1</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
@@ -3994,7 +3997,7 @@
         <v>60</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="17" x14ac:dyDescent="0.2">
@@ -4177,7 +4180,7 @@
         <v>250</v>
       </c>
       <c r="C48" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="17" x14ac:dyDescent="0.2">
@@ -4628,7 +4631,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="17" x14ac:dyDescent="0.2">
@@ -4665,7 +4668,7 @@
     </row>
     <row r="10" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>274</v>
@@ -4681,7 +4684,7 @@
     </row>
     <row r="12" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>275</v>
@@ -4725,7 +4728,7 @@
         <v>108</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
@@ -4741,12 +4744,12 @@
         <v>110</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
@@ -4773,7 +4776,7 @@
     </row>
     <row r="24" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>105</v>
@@ -4808,7 +4811,7 @@
         <v>113</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.2">
@@ -4824,7 +4827,7 @@
         <v>110</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="17" x14ac:dyDescent="0.2">
@@ -4845,7 +4848,7 @@
     </row>
     <row r="34" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>87</v>
@@ -4888,7 +4891,7 @@
     </row>
     <row r="39" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B39" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>144</v>
@@ -4896,7 +4899,7 @@
     </row>
     <row r="40" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B40" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>144</v>
@@ -4904,7 +4907,7 @@
     </row>
     <row r="41" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>274</v>
@@ -4920,7 +4923,7 @@
     </row>
     <row r="43" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>275</v>
@@ -4996,7 +4999,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C3" t="s">
         <v>169</v>
@@ -5047,10 +5050,10 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D6" t="s">
         <v>170</v>
@@ -5078,10 +5081,10 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D8" t="s">
         <v>170</v>
@@ -5109,10 +5112,10 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D10" t="s">
         <v>170</v>
@@ -5140,7 +5143,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C12" t="s">
         <v>177</v>
@@ -5215,10 +5218,10 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D16" t="s">
         <v>170</v>
@@ -5246,10 +5249,10 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D18" t="s">
         <v>170</v>
@@ -5280,7 +5283,7 @@
         <v>175</v>
       </c>
       <c r="C20" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D20" t="s">
         <v>170</v>
@@ -5352,13 +5355,13 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
@@ -5369,7 +5372,7 @@
         <v>156</v>
       </c>
       <c r="C3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D3" t="s">
         <v>277</v>
@@ -5941,7 +5944,7 @@
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C34" t="s">
         <v>194</v>
@@ -6013,7 +6016,7 @@
         <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="17" x14ac:dyDescent="0.2">
@@ -6034,7 +6037,7 @@
     </row>
     <row r="47" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>25</v>
@@ -6050,7 +6053,7 @@
     </row>
     <row r="49" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B49" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>25</v>
@@ -6058,7 +6061,7 @@
     </row>
     <row r="50" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B50" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>25</v>
@@ -6066,7 +6069,7 @@
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B51" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C51" s="12">
         <v>5</v>
@@ -6074,7 +6077,7 @@
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B52" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C52" s="12">
         <v>5</v>
@@ -6082,7 +6085,7 @@
     </row>
     <row r="53" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B53" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>25</v>
@@ -6090,7 +6093,7 @@
     </row>
     <row r="54" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B54" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>25</v>
@@ -6098,7 +6101,7 @@
     </row>
     <row r="55" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B55" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>25</v>
@@ -6106,7 +6109,7 @@
     </row>
     <row r="56" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B56" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>25</v>
@@ -6114,7 +6117,7 @@
     </row>
     <row r="57" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B57" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>25</v>
@@ -6122,7 +6125,7 @@
     </row>
     <row r="58" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B58" s="11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>21</v>
@@ -6130,7 +6133,7 @@
     </row>
     <row r="59" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B59" s="11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>25</v>
@@ -6138,7 +6141,7 @@
     </row>
     <row r="60" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B60" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>25</v>
@@ -6154,7 +6157,7 @@
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C63" t="s">
         <v>202</v>
@@ -6173,7 +6176,7 @@
         <v>308</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
@@ -6197,7 +6200,7 @@
         <v>309</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="69" spans="2:3" ht="17" x14ac:dyDescent="0.2">
@@ -6258,7 +6261,7 @@
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C76" s="15">
         <v>0</v>
@@ -6282,7 +6285,7 @@
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C80" t="s">
         <v>204</v>
@@ -6314,7 +6317,7 @@
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C84" s="3">
         <v>1</v>
@@ -6331,7 +6334,7 @@
     </row>
     <row r="86" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>21</v>
@@ -6523,18 +6526,18 @@
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
+        <v>354</v>
+      </c>
+      <c r="C118" t="s">
         <v>355</v>
-      </c>
-      <c r="C118" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
+        <v>356</v>
+      </c>
+      <c r="C119" t="s">
         <v>357</v>
-      </c>
-      <c r="C119" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.2">
@@ -6547,15 +6550,15 @@
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
+        <v>358</v>
+      </c>
+      <c r="C122" t="s">
         <v>359</v>
-      </c>
-      <c r="C122" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C123" t="str">
         <f>BackupVaults[[#Headers],[Environment-Vault]]</f>
@@ -6564,23 +6567,23 @@
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
+        <v>421</v>
+      </c>
+      <c r="C124" t="s">
         <v>422</v>
-      </c>
-      <c r="C124" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C126">
         <v>60</v>
@@ -6588,7 +6591,7 @@
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C127">
         <v>300</v>
@@ -6596,7 +6599,7 @@
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C128">
         <v>7</v>
@@ -6612,15 +6615,15 @@
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
+        <v>364</v>
+      </c>
+      <c r="C131" t="s">
         <v>365</v>
-      </c>
-      <c r="C131" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C132" t="str">
         <f>BackupPlans[[#Headers],[Environment-Plan]]</f>
@@ -6632,12 +6635,12 @@
         <v>328</v>
       </c>
       <c r="C133" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C134" t="s">
         <v>25</v>
@@ -6645,7 +6648,7 @@
     </row>
     <row r="135" spans="2:4" ht="51" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C135" s="3" t="str">
         <f>"type: STRINGEQUALS" &amp; CHAR(10) &amp; "key: BackupPlan" &amp; CHAR(10) &amp; "value: " &amp; BackupPlans[[#Headers],[Environment-Plan]]</f>
@@ -6664,13 +6667,13 @@
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
+        <v>406</v>
+      </c>
+      <c r="C138" t="s">
+        <v>420</v>
+      </c>
+      <c r="D138" t="s">
         <v>407</v>
-      </c>
-      <c r="C138" t="s">
-        <v>421</v>
-      </c>
-      <c r="D138" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.2">
@@ -6678,26 +6681,26 @@
         <v>27</v>
       </c>
       <c r="C139" t="s">
+        <v>411</v>
+      </c>
+      <c r="D139" t="s">
         <v>412</v>
-      </c>
-      <c r="D139" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
+        <v>408</v>
+      </c>
+      <c r="C140" t="s">
         <v>409</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>410</v>
-      </c>
-      <c r="D140" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C141" t="str">
         <f>C138</f>
@@ -6710,7 +6713,7 @@
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C142" t="s">
         <v>25</v>
@@ -6803,6 +6806,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CF0D059B30BB9B489D9C0650B42F00CE" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c26e46e4eeef685948c313d21891aad3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ec7c2dd5-f528-48fd-9d4b-85d38a09eb8e" xmlns:ns3="97520d32-598a-48f3-b37c-108cfe111962" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f4b0415cc4bbc6681381a1a6069fccb9" ns2:_="" ns3:_="">
     <xsd:import namespace="ec7c2dd5-f528-48fd-9d4b-85d38a09eb8e"/>
@@ -7019,22 +7037,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67FBEE8F-C278-44E2-AAC4-E0F2E05597DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34B1892E-3E6C-4CE1-BBE1-31A16A61250C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ec7c2dd5-f528-48fd-9d4b-85d38a09eb8e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="97520d32-598a-48f3-b37c-108cfe111962"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E46BEA15-38F1-486B-AD01-0F4F80229993}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7051,29 +7079,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34B1892E-3E6C-4CE1-BBE1-31A16A61250C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="ec7c2dd5-f528-48fd-9d4b-85d38a09eb8e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="97520d32-598a-48f3-b37c-108cfe111962"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67FBEE8F-C278-44E2-AAC4-E0F2E05597DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>